--- a/food_groups/sweetener.xlsx
+++ b/food_groups/sweetener.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD39BC6-9756-4F86-98C7-292F780B8E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8387BE7-C015-4B1A-81C7-4457B38619D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sweetener" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>gluten-free</t>
   </si>
   <si>
-    <t>food supergroup</t>
-  </si>
-  <si>
     <t>sweetener</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>artificial sweetener</t>
+  </si>
+  <si>
+    <t>food super group</t>
   </si>
 </sst>
 </file>
@@ -379,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -435,10 +435,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,15 +469,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72690DB6-B6B4-43B7-99B9-071A483207DC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,15 +508,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
